--- a/biology/Botanique/Cruoriopsis/Cruoriopsis.xlsx
+++ b/biology/Botanique/Cruoriopsis/Cruoriopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Peyssonnelle, Peyssonnelia, est un genre d'algues rouges caractérisé par un thalle plus ou moins encroûtant, appartenant à la famille des Peyssonneliaceae.
 Au Japon, l'algue est appelée rumoi-iwanokawa (roche de cuir), mayoi-iwanokawa ou akase-iwanokawa.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Peyssonnelia, a été choisi en hommage à Jean-André Peyssonnel, un médecin et naturaliste français[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Peyssonnelia, a été choisi en hommage à Jean-André Peyssonnel, un médecin et naturaliste français. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Genres séparés des Peyssonnelia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres Cruoriella et Cruoriopsis, Dufour, 1864[4] anciennement considérés comme faisant partie de Peyssonnelia en ont été séparés dans la thèse de Krayesky de 2007[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Cruoriella et Cruoriopsis, Dufour, 1864 anciennement considérés comme faisant partie de Peyssonnelia en ont été séparés dans la thèse de Krayesky de 2007.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Peyssonnelia et en particulier Peyssonnelia squamaria sont des algues rouges de petite taille, de forme circulaire et fortement attachées au substrat[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Peyssonnelia et en particulier Peyssonnelia squamaria sont des algues rouges de petite taille, de forme circulaire et fortement attachées au substrat.
 Le thalle est en forme de lames flabellées et coriaces et présente des lignes concentriques et radiales en face supérieure.
 Le thalle de symétrie dorso-ventrale, de couleur rouge clair à foncé, parfois jaunâtre, a une taille d'un diamètre 4 - 8 cm, et une structure multiaxiale.
 Ce sont des algues encroûtantes, adhérant au substrat en leur centre mais libres sur leurs bords.
-Certaines espèces comme Peyssonnelia capensis voient leur couleur rouge être masquée par un pigment qui les rend uniformément bleues[7].
+Certaines espèces comme Peyssonnelia capensis voient leur couleur rouge être masquée par un pigment qui les rend uniformément bleues.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces algues poussent sur les tombants ombragés, en général à faible profondeur mais on peut les trouver jusqu'à 200 m.
 </t>
@@ -642,8 +662,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Espèces actuelles
-Selon AlgaeBase                                           (10 mars 2019)[8] :
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (10 mars 2019) :
 Peyssonnelia abyssica D.L.Ballantine &amp; N.E.Aponte
 Peyssonnelia abyssicola G.Dickie
 Peyssonnelia antiqua J.H.Johnson
@@ -738,7 +763,7 @@
 Peyssonnelia umbilicata Kützing
 Peyssonnelia valentinii Y.Yoneshigue &amp; C.F.Boudouresque
 Peyssonnelia webervanbosseae K.R.Dixon
-Selon BioLib                    (10 mars 2019)[9] :
+Selon BioLib                    (10 mars 2019) :
 Peyssonnelia atropurpurea
 Peyssonnelia calcea
 Peyssonnelia clarionensis
@@ -754,7 +779,7 @@
 Peyssonnelia rosa-marina
 Peyssonnelia rubra
 Peyssonnelia squamaria (S. G. Gmelin) Decaisne
-Selon ITIS      (10 mars 2019)[10] :
+Selon ITIS      (10 mars 2019) :
 Peyssonnelia atropurpurea
 Peyssonnelia calcea
 Peyssonnelia clarionensis
@@ -769,7 +794,7 @@
 Peyssonnelia quadalupensis
 Peyssonnelia rubra
 Peyssonnelia squamaria (S. G. Gmelin) Decaisne
-Selon NCBI  (10 mars 2019)[11] :
+Selon NCBI  (10 mars 2019) :
 Peyssonnelia armorica
 Peyssonnelia atropurpurea
 Peyssonnelia boergesenii
@@ -798,7 +823,7 @@
 Peyssonnelia squamaria
 Peyssonnelia stoechas
 Peyssonnelia valentinii
-Selon World Register of Marine Species                               (10 mars 2019)[2] :
+Selon World Register of Marine Species                               (10 mars 2019) :
 Peyssonnelia abyssica D.L.Ballantine &amp; N.E.Aponte, 2005
 Peyssonnelia abyssicola G.Dickie, 1869
 Peyssonnelia antiqua J.H.Johnson, 1964 †
@@ -889,8 +914,43 @@
 Peyssonnelia thomassinii Marcot-Coqueugniot &amp; Boudouresque, 1988
 Peyssonnelia umbilicata Kützing
 Peyssonnelia valentinii Y.Yoneshigue &amp; C.F.Boudouresque, 1984
-Espèces fossiles
-Selon Paleobiology Database                   (10 mars 2019)[12] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cruoriopsis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cruoriopsis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (10 mars 2019) :
 Peyssonnelia antiqua, J. H. Johnson. 1964, espèce fossile retrouvée en Irak et en Europe du mésozoïque au cénozoïque.</t>
         </is>
       </c>
